--- a/Documentation/Project documentation/Requirements_Quiz_Game_01.xlsx
+++ b/Documentation/Project documentation/Requirements_Quiz_Game_01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ef3931e2a0cee0e/Dokumente/Uni_Liechtenstein/01_Semester/03_Information_Systems/01_ISM_Developing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{42E04EB0-55CF-4307-87DD-24EAFC348D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8FC44E1E-D415-46D9-94A7-27FD8B70280B}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="8_{42E04EB0-55CF-4307-87DD-24EAFC348D9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15F3DCCE-DCE9-497B-B766-E2CD3065510D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4F4484E-97EE-4C64-8EC9-36F9150CE016}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Edit profile</t>
   </si>
   <si>
-    <t>adding questions</t>
-  </si>
-  <si>
     <t>Who?</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t xml:space="preserve">Player can play the game and check his answer at the end of the game or whenever the player wants to </t>
   </si>
   <si>
-    <t>choose answers</t>
-  </si>
-  <si>
     <t>Only one answer is the right answer</t>
   </si>
   <si>
@@ -145,33 +139,15 @@
     <t>It is possible to display one image per question</t>
   </si>
   <si>
-    <t>display points on highscore table</t>
-  </si>
-  <si>
-    <t>save scores in highscore table</t>
-  </si>
-  <si>
-    <t>game authorization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">information message </t>
-  </si>
-  <si>
     <t>player</t>
   </si>
   <si>
     <t>If there is a wrong login, the user gets an information about it</t>
   </si>
   <si>
-    <t>add picture to user profil</t>
-  </si>
-  <si>
     <t>change language</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>User authorization</t>
   </si>
   <si>
@@ -193,33 +169,12 @@
     <t>Save contact information</t>
   </si>
   <si>
-    <t>general</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact information </t>
-  </si>
-  <si>
-    <t>about us information</t>
-  </si>
-  <si>
     <t>the User can easily write an email to the admins for his purpose</t>
   </si>
   <si>
     <t xml:space="preserve">The User find information about the admins </t>
   </si>
   <si>
-    <t>create question page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general settings </t>
-  </si>
-  <si>
-    <t>start page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">music from "wer wird Millionär" einspielen  </t>
-  </si>
-  <si>
     <t>Submitted messages from Players will be stored in the database</t>
   </si>
   <si>
@@ -256,9 +211,6 @@
     <t>The quiz game provides the user with background music</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>The player can add additional information for every question, it the question is to complicated</t>
   </si>
   <si>
@@ -299,6 +251,51 @@
   </si>
   <si>
     <t>Implementation</t>
+  </si>
+  <si>
+    <t>Display points on highscore table</t>
+  </si>
+  <si>
+    <t>Save scores in highscore table</t>
+  </si>
+  <si>
+    <t>Adding questions</t>
+  </si>
+  <si>
+    <t>Choose answers</t>
+  </si>
+  <si>
+    <t>Game authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information message </t>
+  </si>
+  <si>
+    <t>Add picture to user profil</t>
+  </si>
+  <si>
+    <t>Change language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact information </t>
+  </si>
+  <si>
+    <t>About us information</t>
+  </si>
+  <si>
+    <t>Create question page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General settings </t>
+  </si>
+  <si>
+    <t>Start page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music from "wer wird Millionär" einspielen  </t>
+  </si>
+  <si>
+    <t>General</t>
   </si>
 </sst>
 </file>
@@ -415,17 +412,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60508B4D-1AA2-4649-B7F4-E95F43F6760B}" name="Table1" displayName="Table1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60508B4D-1AA2-4649-B7F4-E95F43F6760B}" name="Table1" displayName="Table1" ref="A1:H31" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H31" xr:uid="{FCED2DD3-C8A8-4CA0-A111-3CD38CBC7D3F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{8033E846-C0C4-47EF-B983-9AF731F080BF}" name="ID" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8F14DD94-804F-4692-8AF5-F34275034B12}" name="Area" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{CB3A6364-13AC-4CB9-BD3F-C60D3E9EDE87}" name="Requirement type" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E29B0AA3-BC32-4987-A556-9057C6510F80}" name="Name" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{32EE2451-80C6-47DC-9C13-03ABEB28FDFF}" name="Who?" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{1C8A20BD-9B11-47CB-9522-805C3EFE7169}" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4BB9DD57-7290-4197-B070-B6B563698C12}" name="Priority" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{E9D84F6D-7214-4A69-9507-6E48F422BB17}" name="Implementation" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8033E846-C0C4-47EF-B983-9AF731F080BF}" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8F14DD94-804F-4692-8AF5-F34275034B12}" name="Area" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{CB3A6364-13AC-4CB9-BD3F-C60D3E9EDE87}" name="Requirement type" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{E29B0AA3-BC32-4987-A556-9057C6510F80}" name="Name" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{32EE2451-80C6-47DC-9C13-03ABEB28FDFF}" name="Who?" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1C8A20BD-9B11-47CB-9522-805C3EFE7169}" name="Description" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4BB9DD57-7290-4197-B070-B6B563698C12}" name="Priority" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E9D84F6D-7214-4A69-9507-6E48F422BB17}" name="Implementation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382129FA-EDF9-4C2A-ACB5-14D99E0917E9}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -750,25 +747,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -782,19 +779,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -808,19 +805,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -837,16 +834,16 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -860,19 +857,19 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -889,16 +886,16 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -915,16 +912,16 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -941,16 +938,16 @@
         <v>20</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -964,19 +961,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -990,19 +987,19 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1016,19 +1013,19 @@
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1042,19 +1039,19 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1068,19 +1065,19 @@
         <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1094,19 +1091,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1120,19 +1117,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1146,19 +1143,19 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1172,19 +1169,19 @@
         <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1198,19 +1195,19 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1224,19 +1221,19 @@
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1250,19 +1247,19 @@
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1276,19 +1273,19 @@
         <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1302,19 +1299,19 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1328,19 +1325,19 @@
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1354,19 +1351,19 @@
         <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1374,25 +1371,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1400,25 +1397,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1426,25 +1423,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1458,19 +1455,19 @@
         <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1484,19 +1481,19 @@
         <v>11</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1510,19 +1507,19 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="2" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.35">
@@ -1536,19 +1533,19 @@
         <v>11</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1586,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1650,7 +1647,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
